--- a/Test Scripts_Phattharaphon Loibandit.xlsx
+++ b/Test Scripts_Phattharaphon Loibandit.xlsx
@@ -59,7 +59,7 @@
 2. Click Login</t>
   </si>
   <si>
-    <t>Email : p_nan29@hotmail.com
+    <t>Email : test@hotmail.com
 Password : 123456789</t>
   </si>
   <si>
@@ -117,17 +117,18 @@
     <t>FB_005</t>
   </si>
   <si>
-    <t>Show Setting</t>
+    <t>Log Out</t>
   </si>
   <si>
-    <t xml:space="preserve">Show setting </t>
+    <t>Log out facebook</t>
   </si>
   <si>
     <t>1. Login to Facebook
-2. Click setting</t>
+2. Click setting
+3. Click Logout</t>
   </si>
   <si>
-    <t>Go to setting Tabs</t>
+    <t xml:space="preserve">Log out Facebook </t>
   </si>
 </sst>
 </file>
